--- a/file/接口（最新）.xlsx
+++ b/file/接口（最新）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="27820" windowHeight="17560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getStoreByArea</t>
-  </si>
-  <si>
     <t>getUserAgreement</t>
   </si>
   <si>
@@ -484,10 +481,6 @@
   </si>
   <si>
     <t>http://192.168.0.177:8083/CTF/webService/APPWebService/queryWebMsgByArea?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type 0根据区域id查询门店（区域 area不为空），1根据区域名称查询门店（区域 area不为空），2查询所有门店        区域area，时间dat，餐次sft都不为空，按桌位人数分类查询可预订桌数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -687,6 +680,14 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getStoreByArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type 0根据区域id查询门店（区域 area不为空），1根据区域名称查询门店（区域 area不为空），2查询所有门店        区域area，时间dat，餐次sft都不为空，按桌位人数分类查询可预订桌数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2381,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2421,10 +2422,10 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -2439,7 +2440,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>22</v>
@@ -2457,13 +2458,13 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
         <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2478,7 +2479,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -2507,17 +2508,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>20</v>
@@ -2532,10 +2533,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -2546,14 +2547,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -2604,13 +2605,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2621,32 +2622,32 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
         <v>74</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="17"/>
       <c r="B16" s="16"/>
       <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2658,13 +2659,13 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
@@ -2679,7 +2680,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -2697,13 +2698,13 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2715,7 +2716,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
@@ -2730,13 +2731,13 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2748,13 +2749,13 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
         <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2766,13 +2767,13 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2780,17 +2781,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
         <v>43</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>44</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2798,17 +2799,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>65</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2816,17 +2817,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
         <v>67</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>68</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2834,17 +2835,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
@@ -2852,14 +2853,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
@@ -2867,17 +2868,17 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2885,11 +2886,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -2899,16 +2900,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2916,16 +2917,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2933,16 +2934,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2950,16 +2951,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" t="s">
         <v>96</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2967,16 +2968,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2984,16 +2985,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
         <v>100</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3001,16 +3002,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3018,16 +3019,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" t="s">
         <v>103</v>
-      </c>
-      <c r="F38" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3035,16 +3036,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="F39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3052,16 +3053,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" t="s">
         <v>112</v>
-      </c>
-      <c r="F40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3069,16 +3070,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3091,19 +3092,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
         <v>132</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3111,19 +3112,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E44" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" t="s">
         <v>135</v>
-      </c>
-      <c r="F44" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3131,19 +3132,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" t="s">
         <v>138</v>
-      </c>
-      <c r="F45" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3151,16 +3152,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="E46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" t="s">
         <v>142</v>
-      </c>
-      <c r="F46" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="14" customFormat="1">
@@ -3168,80 +3169,80 @@
         <v>45</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1"/>
     <row r="50" spans="1:3">
       <c r="B50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="15"/>
       <c r="B58" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="15"/>
       <c r="B59" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
